--- a/output/all_schools_combined.xlsx
+++ b/output/all_schools_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,814 +436,929 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>School</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Bradley University</t>
+          <t>Undergraduate_Headcount</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>California_state_university</t>
+          <t>Graduate_Headcount</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cornell_university</t>
+          <t>Professional_Headcount</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Culinary_institute_of_America</t>
+          <t>Total_Headcount</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gannon_university</t>
+          <t>Undergraduate_FTE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Harvard_university</t>
+          <t>Graduate_FTE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Lewis_univsersity</t>
+          <t>Professional_FTE</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MT_ST_MARY</t>
+          <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Michigan_state_university</t>
+          <t>Applications_Rcvd</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Molloy_college</t>
+          <t>Acceptances</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>New_York_University</t>
+          <t>Matriculants</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Ohio_state</t>
+          <t>Retention_Rate</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ST_Louis_univ</t>
+          <t>Full_Time_Employee_Equivalents</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Stevenson</t>
+          <t>Tuition</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Texas_A&amp;M</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>The_catholic_university_of_amer</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>University_of_colorado</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>University_of_minesota</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>stevens_institue_of_technology</t>
+          <t>Room_and_Board_20_meals</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>ASU</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>119685</v>
       </c>
-      <c r="C2" t="n">
-        <v>3596</v>
-      </c>
       <c r="D2" t="n">
-        <v>460331</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16128</v>
-      </c>
+        <v>33179</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3257</v>
+        <v>152864</v>
       </c>
       <c r="G2" t="n">
-        <v>2768</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>5135</v>
-      </c>
+        <v>110084</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26581</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>1830</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41234</v>
-      </c>
+        <v>136665</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>32986</v>
-      </c>
-      <c r="N2" t="n">
-        <v>52269</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8669</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3117</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>165559</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3177</v>
-      </c>
-      <c r="S2" t="n">
-        <v>50981</v>
-      </c>
-      <c r="T2" t="n">
-        <v>42424</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4236</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>33179</v>
+          <t>Bradley University</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
       </c>
       <c r="C3" t="n">
+        <v>3596</v>
+      </c>
+      <c r="D3" t="n">
         <v>1181</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>12139</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>1421</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>2685</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4235</v>
+      </c>
       <c r="K3" t="n">
-        <v>10855</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>9459</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7260</v>
+      </c>
       <c r="M3" t="n">
-        <v>24418</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11408</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6665</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>606</v>
+        <v>41210</v>
       </c>
       <c r="Q3" t="n">
-        <v>31870</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1690</v>
-      </c>
-      <c r="S3" t="n">
-        <v>16727</v>
-      </c>
-      <c r="T3" t="n">
-        <v>11841</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4233</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>California_state_university</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>460331</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>460331</v>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>3376</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3224</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>3393236</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>375</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>4109</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>152864</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Cornell_university</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16128</v>
+      </c>
       <c r="D5" t="n">
-        <v>460331</v>
-      </c>
-      <c r="E5" t="n">
+        <v>12139</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>28267</v>
       </c>
-      <c r="F5" t="n">
-        <v>3257</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4189</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>52089</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>65612</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5516</v>
+      </c>
       <c r="M5" t="n">
-        <v>64636</v>
-      </c>
-      <c r="N5" t="n">
-        <v>66901</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15334</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3723</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>165559</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5242</v>
-      </c>
-      <c r="S5" t="n">
-        <v>67708</v>
-      </c>
-      <c r="T5" t="n">
-        <v>70090</v>
-      </c>
-      <c r="U5" t="n">
-        <v>8469</v>
-      </c>
+        <v>3525</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>110084</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Culinary_institute_of_America</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3257</v>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>3257</v>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>6975</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5433</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>39442</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>31924</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>2969</v>
-      </c>
-      <c r="S6" t="n">
-        <v>45046</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>4191</v>
+      <c r="P6" t="n">
+        <v>36900</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>26581</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>Gannon_university</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2768</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1421</v>
+      </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>4189</v>
+      </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>13437</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>3615</v>
+      </c>
       <c r="K7" t="n">
-        <v>9162</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>6607</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4915</v>
+      </c>
       <c r="M7" t="n">
-        <v>18592</v>
+        <v>554</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>771</v>
-      </c>
-      <c r="S7" t="n">
-        <v>8003</v>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>3259</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>Harvard_university</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>6975</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13437</v>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>20412</v>
+      </c>
+      <c r="K8" t="n">
+        <v>54008</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1970</v>
+      </c>
       <c r="M8" t="n">
-        <v>3346</v>
+        <v>1647</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>271</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>136665</v>
+          <t>Lewis_univsersity</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>4235</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>5135</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2685</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>3615</v>
-      </c>
-      <c r="H9" t="n">
-        <v>20412</v>
-      </c>
-      <c r="I9" t="n">
+        <v>5433</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>6177</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>15743</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10999</v>
+      </c>
       <c r="M9" t="n">
-        <v>57556</v>
-      </c>
-      <c r="N9" t="n">
-        <v>60820</v>
-      </c>
-      <c r="O9" t="n">
-        <v>14417</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>5780</v>
-      </c>
-      <c r="S9" t="n">
-        <v>53049</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>7450</v>
+        <v>2272</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>38800</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>MT_ST_MARY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>9459</v>
+        <v>1830</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>65612</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>6607</v>
-      </c>
-      <c r="H10" t="n">
-        <v>54008</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15743</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>6041</v>
       </c>
-      <c r="K10" t="n">
-        <v>62138</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>4459</v>
+      </c>
       <c r="M10" t="n">
-        <v>117604</v>
+        <v>545</v>
       </c>
       <c r="N10" t="n">
-        <v>72791</v>
-      </c>
-      <c r="O10" t="n">
-        <v>46899</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>6545</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>140168</v>
-      </c>
-      <c r="R10" t="n">
-        <v>12433</v>
-      </c>
-      <c r="S10" t="n">
-        <v>111381</v>
-      </c>
-      <c r="T10" t="n">
-        <v>58444</v>
-      </c>
-      <c r="U10" t="n">
-        <v>10673</v>
-      </c>
+        <v>48630</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Acceptances</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Michigan_state_university</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>7260</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>5516</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>41234</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10855</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>52089</v>
+      </c>
       <c r="G11" t="n">
-        <v>4915</v>
+        <v>39442</v>
       </c>
       <c r="H11" t="n">
-        <v>1970</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4459</v>
-      </c>
+        <v>9162</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
+        <v>62138</v>
+      </c>
+      <c r="L11" t="n">
         <v>52690</v>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>13652</v>
-      </c>
-      <c r="N11" t="n">
-        <v>44078</v>
-      </c>
-      <c r="O11" t="n">
-        <v>25527</v>
-      </c>
+        <v>9625</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>4880</v>
+        <v>17803</v>
       </c>
       <c r="Q11" t="n">
-        <v>101048</v>
-      </c>
-      <c r="R11" t="n">
-        <v>8617</v>
-      </c>
-      <c r="S11" t="n">
-        <v>84127</v>
-      </c>
-      <c r="T11" t="n">
-        <v>45601</v>
-      </c>
-      <c r="U11" t="n">
-        <v>5078</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Matriculants</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>931</v>
-      </c>
+          <t>Molloy_college</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>3525</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>554</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1647</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2272</v>
-      </c>
-      <c r="J12" t="n">
-        <v>545</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9625</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>6582</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9530</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4046</v>
-      </c>
-      <c r="P12" t="n">
-        <v>906</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>26795</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="S12" t="n">
-        <v>14450</v>
-      </c>
-      <c r="T12" t="n">
-        <v>9837</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1054</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>New_York_University</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>32986</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24418</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3376</v>
+      </c>
+      <c r="F13" t="n">
+        <v>64636</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31924</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18592</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3346</v>
+      </c>
       <c r="J13" t="n">
-        <v>77</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+        <v>57556</v>
+      </c>
+      <c r="K13" t="n">
+        <v>117604</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13652</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6582</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>7004</v>
+      </c>
+      <c r="P13" t="n">
+        <v>62796</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>17080</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>Ohio_state</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>52269</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11408</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3224</v>
+      </c>
+      <c r="F14" t="n">
+        <v>66901</v>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>60820</v>
+      </c>
+      <c r="K14" t="n">
+        <v>72791</v>
+      </c>
+      <c r="L14" t="n">
+        <v>44078</v>
+      </c>
       <c r="M14" t="n">
-        <v>7004</v>
+        <v>9530</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>12728</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14738</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>ST_Louis_univ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>41210</v>
+        <v>8669</v>
       </c>
       <c r="D15" t="n">
-        <v>3393236</v>
+        <v>6665</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>36900</v>
+        <v>15334</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>38800</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>48630</v>
+        <v>14417</v>
       </c>
       <c r="K15" t="n">
-        <v>17803</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>46899</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25527</v>
+      </c>
       <c r="M15" t="n">
-        <v>62796</v>
-      </c>
-      <c r="N15" t="n">
-        <v>12728</v>
-      </c>
-      <c r="O15" t="n">
+        <v>4046</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="n">
         <v>54760</v>
       </c>
-      <c r="P15" t="n">
-        <v>37734</v>
-      </c>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>56300</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>15148</v>
-      </c>
-      <c r="U15" t="n">
-        <v>61028</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>Stevenson</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>13500</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>3117</v>
+      </c>
+      <c r="D16" t="n">
+        <v>606</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>13800</v>
+        <v>3723</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>12383</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>12564</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>6545</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4880</v>
+      </c>
       <c r="M16" t="n">
-        <v>17080</v>
-      </c>
-      <c r="N16" t="n">
-        <v>14738</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>37734</v>
+      </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Texas_A&amp;M</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>165559</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31870</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>165559</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>140168</v>
+      </c>
+      <c r="L17" t="n">
+        <v>101048</v>
+      </c>
+      <c r="M17" t="n">
+        <v>26795</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>The_catholic_university_of_amer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3177</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E18" t="n">
+        <v>375</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5242</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2969</v>
+      </c>
+      <c r="H18" t="n">
+        <v>771</v>
+      </c>
+      <c r="I18" t="n">
+        <v>271</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5780</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12433</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8617</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>56300</v>
+      </c>
+      <c r="Q18" t="n">
         <v>18200</v>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>University_of_colorado</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>50981</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16727</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>67708</v>
+      </c>
+      <c r="G19" t="n">
+        <v>45046</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8003</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>53049</v>
+      </c>
+      <c r="K19" t="n">
+        <v>111381</v>
+      </c>
+      <c r="L19" t="n">
+        <v>84127</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14450</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>University_of_minesota</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>42424</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11841</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4109</v>
+      </c>
+      <c r="F20" t="n">
+        <v>70090</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>58444</v>
+      </c>
+      <c r="L20" t="n">
+        <v>45601</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9837</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>15148</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>stevens_institue_of_technology</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024‑2025</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4236</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4233</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>8469</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4191</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3259</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>7450</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10673</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5078</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1054</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>61028</v>
+      </c>
+      <c r="Q21" t="n">
         <v>19124</v>
       </c>
     </row>
